--- a/teaching/traditional_assets/database/data/ireland/ireland_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_drugs_biotechnology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,37 +591,37 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.221</v>
+        <v>0.128</v>
       </c>
       <c r="F2">
-        <v>0.283</v>
+        <v>0.24</v>
       </c>
       <c r="G2">
-        <v>0.3168451884713869</v>
+        <v>0.2283316187656361</v>
       </c>
       <c r="H2">
-        <v>-0.1255824599535521</v>
+        <v>-0.1074134578338343</v>
       </c>
       <c r="I2">
-        <v>-0.2338511187268272</v>
+        <v>-0.1136060106594885</v>
       </c>
       <c r="J2">
-        <v>-0.2338511187268272</v>
+        <v>-0.1136060106594885</v>
       </c>
       <c r="K2">
-        <v>-279.6</v>
+        <v>-191.5</v>
       </c>
       <c r="L2">
-        <v>-0.260153039957125</v>
+        <v>-0.1086617917336464</v>
       </c>
       <c r="M2">
-        <v>13.1</v>
+        <v>37.89</v>
       </c>
       <c r="N2">
-        <v>0.003447277703218336</v>
+        <v>0.006819777173815224</v>
       </c>
       <c r="O2">
-        <v>-0.04685264663805436</v>
+        <v>-0.1978590078328982</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -633,79 +633,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>13.1</v>
+        <v>37.89</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>651.7</v>
+        <v>762.6</v>
       </c>
       <c r="V2">
-        <v>0.1714954869608694</v>
+        <v>0.1372594899116255</v>
       </c>
       <c r="W2">
-        <v>-0.2030284569843307</v>
+        <v>-0.06890095487736378</v>
       </c>
       <c r="X2">
-        <v>0.109195618378324</v>
+        <v>0.06522993533495799</v>
       </c>
       <c r="Y2">
-        <v>-0.3122240753626546</v>
+        <v>-0.1341308902123218</v>
       </c>
       <c r="Z2">
-        <v>0.9734853890114044</v>
+        <v>1.904280353596428</v>
       </c>
       <c r="AA2">
-        <v>0.6539627649338302</v>
+        <v>1.337005804844218</v>
       </c>
       <c r="AB2">
-        <v>0.1049438271294658</v>
+        <v>0.06357235218884756</v>
       </c>
       <c r="AC2">
-        <v>0.5490189378043644</v>
+        <v>1.273433452655371</v>
       </c>
       <c r="AD2">
-        <v>317.2</v>
+        <v>284.97</v>
       </c>
       <c r="AE2">
-        <v>42.22478776947468</v>
+        <v>52.26719639869408</v>
       </c>
       <c r="AF2">
-        <v>359.4247877694747</v>
+        <v>337.2371963986941</v>
       </c>
       <c r="AG2">
-        <v>-292.2752122305254</v>
+        <v>-425.3628036013059</v>
       </c>
       <c r="AH2">
-        <v>0.08641006030936878</v>
+        <v>0.05722541070395923</v>
       </c>
       <c r="AI2">
-        <v>0.2093543792762014</v>
+        <v>0.1506574305239645</v>
       </c>
       <c r="AJ2">
-        <v>-0.08332092676053378</v>
+        <v>-0.08290804399583794</v>
       </c>
       <c r="AK2">
-        <v>-0.2744046665579832</v>
+        <v>-0.2882179719004691</v>
       </c>
       <c r="AL2">
-        <v>14.836</v>
+        <v>13.87</v>
       </c>
       <c r="AM2">
-        <v>-7.703999999999999</v>
+        <v>-5.599999999999998</v>
       </c>
       <c r="AN2">
-        <v>-2.045303603783683</v>
+        <v>-2.730905606133206</v>
       </c>
       <c r="AO2">
-        <v>-17.00593151792936</v>
+        <v>-14.79452054794521</v>
       </c>
       <c r="AP2">
-        <v>1.884588729103828</v>
+        <v>4.076308611416444</v>
       </c>
       <c r="AQ2">
-        <v>32.74922118380063</v>
+        <v>36.64285714285716</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prothena Corporation plc (NasdaqGS:PRTA)</t>
+          <t>Amarin Corporation plc (NasdaqGM:AMRN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,34 +725,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.5660000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="G3">
-        <v>-116.4893617021277</v>
+        <v>0.0306727673275716</v>
       </c>
       <c r="H3">
-        <v>-185.5053191489362</v>
+        <v>-0.03965429588205389</v>
       </c>
       <c r="I3">
-        <v>-115.4007999116636</v>
+        <v>-0.04054281901790672</v>
       </c>
       <c r="J3">
-        <v>-115.4007999116636</v>
+        <v>-0.04054281901790672</v>
       </c>
       <c r="K3">
-        <v>-78.59999999999999</v>
+        <v>-15.9</v>
       </c>
       <c r="L3">
-        <v>-104.5212765957447</v>
+        <v>-0.02694458566344687</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>30.2</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0158830335542232</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-1.89937106918239</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,76 +764,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>30.2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>390.3</v>
+        <v>207.2</v>
       </c>
       <c r="V3">
-        <v>0.620311506675143</v>
+        <v>0.1089723361733459</v>
       </c>
       <c r="W3">
-        <v>-0.2313806299676185</v>
+        <v>-0.02770034843205575</v>
       </c>
       <c r="X3">
-        <v>0.106706191302318</v>
+        <v>0.06357584909499579</v>
       </c>
       <c r="Y3">
-        <v>-0.3380868212699365</v>
+        <v>-0.09127619752705154</v>
       </c>
       <c r="Z3">
-        <v>-0.01255887130999042</v>
+        <v>-264.8073475023409</v>
       </c>
       <c r="AA3">
-        <v>1.449303795160537</v>
+        <v>10.73603636439934</v>
       </c>
       <c r="AB3">
-        <v>0.1042131883651868</v>
+        <v>0.06313694853745443</v>
       </c>
       <c r="AC3">
-        <v>1.345090606795351</v>
+        <v>10.67289941586189</v>
       </c>
       <c r="AD3">
-        <v>24.2</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.02200766785521341</v>
+        <v>15.07158751233379</v>
       </c>
       <c r="AF3">
-        <v>24.22200766785521</v>
+        <v>24.54158751233379</v>
       </c>
       <c r="AG3">
-        <v>-366.0779923321448</v>
+        <v>-182.6584124876662</v>
       </c>
       <c r="AH3">
-        <v>0.0370694702406896</v>
+        <v>0.0127426437392804</v>
       </c>
       <c r="AI3">
-        <v>0.07728240862244799</v>
+        <v>0.03884136150163546</v>
       </c>
       <c r="AJ3">
-        <v>-1.391286101747343</v>
+        <v>-0.1062745056120052</v>
       </c>
       <c r="AK3">
-        <v>4.761804792593127</v>
+        <v>-0.4301472532582807</v>
       </c>
       <c r="AL3">
-        <v>0.9360000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="AM3">
-        <v>-7.504</v>
+        <v>-3.54</v>
       </c>
       <c r="AN3">
-        <v>-0.2854547813675879</v>
+        <v>-0.4955520669806385</v>
       </c>
       <c r="AO3">
-        <v>-92.73504273504273</v>
+        <v>-5.489690721649485</v>
       </c>
       <c r="AP3">
-        <v>4.318128647299914</v>
+        <v>9.558263343153648</v>
       </c>
       <c r="AQ3">
-        <v>11.56716417910448</v>
+        <v>6.016949152542373</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alkermes plc (NasdaqGS:ALKS)</t>
+          <t>Prothena Corporation plc (NasdaqGS:PRTA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,37 +856,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.124</v>
-      </c>
-      <c r="F4">
-        <v>0.283</v>
+        <v>-0.257</v>
       </c>
       <c r="G4">
-        <v>0.3986312849162011</v>
+        <v>-19.49265687583446</v>
       </c>
       <c r="H4">
-        <v>0.004217877094972068</v>
+        <v>-112.4165554072096</v>
       </c>
       <c r="I4">
-        <v>-0.1532128082125921</v>
+        <v>-139.2732105882313</v>
       </c>
       <c r="J4">
-        <v>-0.1532128082125921</v>
+        <v>-139.2732105882313</v>
       </c>
       <c r="K4">
-        <v>-201</v>
+        <v>-102</v>
       </c>
       <c r="L4">
-        <v>-0.1871508379888268</v>
+        <v>-136.1815754339119</v>
       </c>
       <c r="M4">
-        <v>13.1</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.004131319183827935</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.06517412935323383</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -895,79 +895,207 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>13.1</v>
-      </c>
-      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>314.5</v>
+      </c>
+      <c r="V4">
+        <v>0.6558915537017727</v>
+      </c>
+      <c r="W4">
+        <v>-0.3526970954356847</v>
+      </c>
+      <c r="X4">
+        <v>0.06522993533495799</v>
+      </c>
+      <c r="Y4">
+        <v>-0.4179270307706426</v>
+      </c>
+      <c r="Z4">
+        <v>-0.009599877817114071</v>
+      </c>
+      <c r="AA4">
+        <v>1.337005804844218</v>
+      </c>
+      <c r="AB4">
+        <v>0.06357235218884756</v>
+      </c>
+      <c r="AC4">
+        <v>1.273433452655371</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>23.07817365292621</v>
+      </c>
+      <c r="AF4">
+        <v>23.07817365292621</v>
+      </c>
+      <c r="AG4">
+        <v>-291.4218263470738</v>
+      </c>
+      <c r="AH4">
+        <v>0.04591957005451591</v>
+      </c>
+      <c r="AI4">
+        <v>0.09922759857666398</v>
+      </c>
+      <c r="AJ4">
+        <v>-1.54947180040601</v>
+      </c>
+      <c r="AK4">
+        <v>3.557316033366037</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-2.93</v>
+      </c>
+      <c r="AN4">
+        <v>-0</v>
+      </c>
+      <c r="AP4">
+        <v>2.970660819032353</v>
+      </c>
+      <c r="AQ4">
+        <v>36.07508532423208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alkermes plc (NasdaqGS:ALKS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Drugs (Biotechnology)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.128</v>
+      </c>
+      <c r="F5">
+        <v>0.24</v>
+      </c>
+      <c r="G5">
+        <v>0.3405036278275715</v>
+      </c>
+      <c r="H5">
+        <v>-0.06973965002134017</v>
+      </c>
+      <c r="I5">
+        <v>-0.06143703546452141</v>
+      </c>
+      <c r="J5">
+        <v>-0.06143703546452141</v>
+      </c>
+      <c r="K5">
+        <v>-73.59999999999999</v>
+      </c>
+      <c r="L5">
+        <v>-0.06282543747332479</v>
+      </c>
+      <c r="M5">
+        <v>7.69</v>
+      </c>
+      <c r="N5">
+        <v>0.002422047244094488</v>
+      </c>
+      <c r="O5">
+        <v>-0.1044836956521739</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>7.69</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="U4">
-        <v>261.4</v>
-      </c>
-      <c r="V4">
-        <v>0.08243716295058184</v>
-      </c>
-      <c r="W4">
-        <v>-0.1746762840010428</v>
-      </c>
-      <c r="X4">
-        <v>0.1116850454543299</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2863613294553727</v>
-      </c>
-      <c r="Z4">
-        <v>0.9227574831518403</v>
-      </c>
-      <c r="AA4">
-        <v>-0.1413782652928771</v>
-      </c>
-      <c r="AB4">
-        <v>0.1056744658937448</v>
-      </c>
-      <c r="AC4">
-        <v>-0.2470527311866219</v>
-      </c>
-      <c r="AD4">
-        <v>293</v>
-      </c>
-      <c r="AE4">
-        <v>42.20278010161947</v>
-      </c>
-      <c r="AF4">
-        <v>335.2027801016195</v>
-      </c>
-      <c r="AG4">
-        <v>73.80278010161948</v>
-      </c>
-      <c r="AH4">
-        <v>0.09560552018155728</v>
-      </c>
-      <c r="AI4">
-        <v>0.2388500185793758</v>
-      </c>
-      <c r="AJ4">
-        <v>0.02274562112567613</v>
-      </c>
-      <c r="AK4">
-        <v>0.06462574468956393</v>
-      </c>
-      <c r="AL4">
-        <v>13.9</v>
-      </c>
-      <c r="AM4">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="AN4">
-        <v>-4.167259280329967</v>
-      </c>
-      <c r="AO4">
-        <v>-11.90647482014388</v>
-      </c>
-      <c r="AP4">
-        <v>-1.049676861066982</v>
-      </c>
-      <c r="AQ4">
-        <v>827.500000000003</v>
+      <c r="U5">
+        <v>240.9</v>
+      </c>
+      <c r="V5">
+        <v>0.0758740157480315</v>
+      </c>
+      <c r="W5">
+        <v>-0.06890095487736378</v>
+      </c>
+      <c r="X5">
+        <v>0.06725341106558885</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1361543659429526</v>
+      </c>
+      <c r="Z5">
+        <v>1.164840102158601</v>
+      </c>
+      <c r="AA5">
+        <v>-0.07156432266681473</v>
+      </c>
+      <c r="AB5">
+        <v>0.06534949529232309</v>
+      </c>
+      <c r="AC5">
+        <v>-0.1369138179591378</v>
+      </c>
+      <c r="AD5">
+        <v>275.5</v>
+      </c>
+      <c r="AE5">
+        <v>14.11743523343408</v>
+      </c>
+      <c r="AF5">
+        <v>289.6174352334341</v>
+      </c>
+      <c r="AG5">
+        <v>48.71743523343409</v>
+      </c>
+      <c r="AH5">
+        <v>0.08359290474271965</v>
+      </c>
+      <c r="AI5">
+        <v>0.2107814848682982</v>
+      </c>
+      <c r="AJ5">
+        <v>0.01511219150319432</v>
+      </c>
+      <c r="AK5">
+        <v>0.04299416258068413</v>
+      </c>
+      <c r="AL5">
+        <v>9.99</v>
+      </c>
+      <c r="AM5">
+        <v>0.870000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>21.42301710730948</v>
+      </c>
+      <c r="AO5">
+        <v>-7.827827827827828</v>
+      </c>
+      <c r="AP5">
+        <v>3.788292008820691</v>
+      </c>
+      <c r="AQ5">
+        <v>-89.88505747126428</v>
       </c>
     </row>
   </sheetData>
